--- a/ExcelReadWohnung/ExcelReadWohnung/Sheet/Rechnungen.xlsx
+++ b/ExcelReadWohnung/ExcelReadWohnung/Sheet/Rechnungen.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Desktop\WG_STUFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebi\source\repos\ExcelWG\ExcelReadWohnung\ExcelReadWohnung\Sheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE22849-6E4F-47BE-9FF3-8ADE20F81C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914132CB-75DD-4DCE-9318-9D16935F76F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" tabRatio="624" activeTab="1" xr2:uid="{951F79EF-37B6-4D2A-888D-2551AE1A684F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="624" activeTab="2" xr2:uid="{951F79EF-37B6-4D2A-888D-2551AE1A684F}"/>
   </bookViews>
   <sheets>
     <sheet name="Erste_Miete_Kaution_etc" sheetId="1" r:id="rId1"/>
     <sheet name="Möbel Sonstige Gemeinschafszeug" sheetId="4" r:id="rId2"/>
     <sheet name="Monatliche Kosten" sheetId="2" r:id="rId3"/>
-    <sheet name="Jährliche Kosten" sheetId="3" r:id="rId4"/>
+    <sheet name="2022-03" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="49">
   <si>
     <t>Sebi</t>
   </si>
@@ -125,9 +124,6 @@
     <t>WG Kasse</t>
   </si>
   <si>
-    <t>Internet Jährlich</t>
-  </si>
-  <si>
     <t>Faltmatratze</t>
   </si>
   <si>
@@ -174,12 +170,27 @@
   </si>
   <si>
     <t>Tisch+ Sessel</t>
+  </si>
+  <si>
+    <t>Staubsauger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waschmaschiene </t>
+  </si>
+  <si>
+    <t>an Sabi</t>
+  </si>
+  <si>
+    <t>an Sebi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -247,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -261,6 +272,8 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -584,16 +597,16 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.90625" customWidth="1"/>
-    <col min="2" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -643,7 +656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -670,7 +683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -688,7 +701,21 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -709,7 +736,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -730,7 +757,7 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -750,7 +777,7 @@
         <v>2824.8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -771,77 +798,85 @@
         <v>7821.8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -857,16 +892,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5893B1-171B-456B-85D3-BB3C3E0EEB62}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -880,9 +915,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <f>E2/3</f>
@@ -901,9 +936,9 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <f>E3/3</f>
@@ -922,9 +957,9 @@
         <v>26.909999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <f>E4/2</f>
@@ -938,7 +973,7 @@
         <v>42.95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -959,29 +994,29 @@
         <v>99.83</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1">
         <f>E10/3</f>
@@ -999,23 +1034,23 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1">
         <f>E12/3</f>
@@ -1033,51 +1068,97 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1">
+        <f>E14/3</f>
+        <v>29.966666666666669</v>
+      </c>
+      <c r="C14" s="1">
+        <f>E14/3</f>
+        <v>29.966666666666669</v>
+      </c>
+      <c r="D14" s="1">
+        <f>E14/3</f>
+        <v>29.966666666666669</v>
+      </c>
+      <c r="E14">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1">
+        <f>E15/3</f>
+        <v>86.333333333333329</v>
+      </c>
+      <c r="C15" s="1">
+        <f>E15/3</f>
+        <v>86.333333333333329</v>
+      </c>
+      <c r="D15" s="1">
+        <f>E15/3</f>
+        <v>86.333333333333329</v>
+      </c>
+      <c r="E15">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <f>SUM(B14:B15)</f>
+        <v>116.3</v>
+      </c>
+      <c r="C16" s="1">
+        <f>SUM(C14:C15)</f>
+        <v>116.3</v>
+      </c>
+      <c r="D16" s="1">
+        <f>SUM(D14:D15)</f>
+        <v>116.3</v>
+      </c>
+      <c r="E16" s="1">
+        <f>SUM(E14:E15)</f>
+        <v>348.9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1094,42 +1175,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5433C61-2C76-4E92-8D27-4809E3B657C2}">
   <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:E36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
-    <col min="8" max="8" width="58.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.90625" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
-    <col min="11" max="11" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="58.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G2" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G3" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
       <c r="G4" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1147,7 +1228,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1163,11 +1244,11 @@
         <f>E6/3</f>
         <v>392.33333333333331</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="12">
         <v>1177</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1264,7 @@
         <f>(70/3)*(4/7)</f>
         <v>13.333333333333332</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="12">
         <f>SUM(B7:D7)</f>
         <v>70</v>
       </c>
@@ -1194,23 +1275,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="12">
         <f>E8*17/42</f>
         <v>30.599999999999994</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="12">
         <f>E8*17/42</f>
         <v>30.599999999999994</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="12">
         <f>E8*8/42</f>
         <v>14.399999999999999</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="12">
         <v>75.599999999999994</v>
       </c>
       <c r="G8" t="s">
@@ -1229,21 +1310,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>42</v>
+      <c r="B9" s="12">
+        <f>E9*17/42</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="12">
+        <f>E9*17/42</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <f>E9*8/42</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -1252,77 +1336,78 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="10">
-        <f>E10/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="C10" s="10">
-        <f>E10/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="D10" s="10">
-        <f>E10/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="E10" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="12">
+        <v>0</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="12">
         <f>E11/3</f>
-        <v>5</v>
-      </c>
-      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
         <f>E11/3</f>
-        <v>5</v>
-      </c>
-      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
         <f>E11/3</f>
-        <v>5</v>
-      </c>
-      <c r="E11" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="12">
         <f>SUM(B6:B11)</f>
-        <v>463.59999999999997</v>
+        <v>451.26666666666665</v>
       </c>
       <c r="C12" s="12">
         <f>SUM(C6:C11)</f>
-        <v>463.59999999999997</v>
+        <v>451.26666666666665</v>
       </c>
       <c r="D12" s="12">
         <f>SUM(D6:D11)</f>
-        <v>432.39999999999992</v>
+        <v>420.06666666666661</v>
       </c>
       <c r="E12" s="12">
         <f>SUM(E6:E11)</f>
-        <v>1359.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1322.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="I15">
+        <f>32/12</f>
+        <v>2.6666666666666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1336,158 +1421,184 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="12">
         <f>E17/3</f>
         <v>392.33333333333331</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="12">
         <f>E17/3</f>
         <v>392.33333333333331</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="12">
         <f>E17/3</f>
         <v>392.33333333333331</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="12">
         <v>1177</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="12">
         <f>(70-D18)/2</f>
         <v>28.333333333333336</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="12">
         <f>(70-D18)/2</f>
         <v>28.333333333333336</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="12">
         <f>(70/3)*(4/7)</f>
         <v>13.333333333333332</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="12">
         <f>SUM(B18:D18)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="12">
         <f>E19*17/42</f>
-        <v>30.599999999999994</v>
-      </c>
-      <c r="C19" s="10">
+        <v>0</v>
+      </c>
+      <c r="C19" s="12">
         <f>E19*17/42</f>
-        <v>30.599999999999994</v>
-      </c>
-      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
         <f>E19*8/42</f>
-        <v>14.399999999999999</v>
-      </c>
-      <c r="E19" s="9">
-        <v>75.599999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="12">
         <f>E20*17/42</f>
-        <v>12.952380952380953</v>
-      </c>
-      <c r="C20" s="10">
+        <v>14.03174603174603</v>
+      </c>
+      <c r="C20" s="12">
         <f>E20*17/42</f>
-        <v>12.952380952380953</v>
-      </c>
-      <c r="D20" s="10">
+        <v>14.03174603174603</v>
+      </c>
+      <c r="D20" s="12">
         <f>E20*8/42</f>
-        <v>6.0952380952380949</v>
-      </c>
-      <c r="E20" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6.6031746031746028</v>
+      </c>
+      <c r="E20" s="12">
+        <f>32+I15</f>
+        <v>34.666666666666664</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="10">
-        <f>E21/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="C21" s="10">
-        <f>E21/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="D21" s="10">
-        <f>E21/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="E21" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="12">
+        <v>0</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="12">
         <f>E22/3</f>
-        <v>5</v>
-      </c>
-      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="C22" s="12">
         <f>E22/3</f>
-        <v>5</v>
-      </c>
-      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="12">
         <f>E22/3</f>
-        <v>5</v>
-      </c>
-      <c r="E22" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="12">
         <f>SUM(B17:B22)</f>
-        <v>476.55238095238093</v>
+        <v>434.69841269841265</v>
       </c>
       <c r="C23" s="12">
         <f>SUM(C17:C22)</f>
-        <v>476.55238095238093</v>
+        <v>434.69841269841265</v>
       </c>
       <c r="D23" s="12">
         <f>SUM(D17:D22)</f>
-        <v>438.49523809523799</v>
+        <v>412.26984126984121</v>
       </c>
       <c r="E23" s="12">
         <f>SUM(E17:E22)</f>
-        <v>1391.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1281.6666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="12">
+        <f>SUM(C8,C17,C18)</f>
+        <v>451.26666666666659</v>
+      </c>
+      <c r="D24" s="12">
+        <f>SUM(D8,D17,D18)</f>
+        <v>420.06666666666661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="12">
+        <f>SUM(B20)</f>
+        <v>14.03174603174603</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="12">
+        <f>SUM(D20)</f>
+        <v>6.6031746031746028</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1501,7 +1612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>19</v>
       </c>
@@ -1521,7 +1632,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>17</v>
       </c>
@@ -1542,114 +1653,141 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="10">
         <f>E31*17/42</f>
-        <v>12.952380952380953</v>
+        <v>14.033095238095237</v>
       </c>
       <c r="C31" s="10">
         <f>E31*17/42</f>
-        <v>12.952380952380953</v>
+        <v>14.033095238095237</v>
       </c>
       <c r="D31" s="10">
         <f>E31*8/42</f>
-        <v>6.0952380952380949</v>
-      </c>
-      <c r="E31" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6.6038095238095238</v>
+      </c>
+      <c r="E31" s="10">
+        <f>34.67</f>
+        <v>34.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="10">
-        <f>E32/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="C32" s="10">
-        <f>E32/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="D32" s="10">
-        <f>E32/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="E32" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="13">
         <f>E33/3</f>
-        <v>5</v>
-      </c>
-      <c r="C33" s="9">
+        <v>0</v>
+      </c>
+      <c r="C33" s="13">
         <f>E33/3</f>
-        <v>5</v>
-      </c>
-      <c r="D33" s="9">
+        <v>0</v>
+      </c>
+      <c r="D33" s="13">
         <f>E33/3</f>
-        <v>5</v>
-      </c>
-      <c r="E33" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="12">
         <f>SUM(B28:B33)</f>
-        <v>445.95238095238091</v>
+        <v>434.69976190476189</v>
       </c>
       <c r="C34" s="12">
         <f>SUM(C28:C33)</f>
-        <v>445.95238095238091</v>
+        <v>434.69976190476189</v>
       </c>
       <c r="D34" s="12">
         <f>SUM(D28:D33)</f>
-        <v>424.09523809523802</v>
+        <v>412.27047619047613</v>
       </c>
       <c r="E34" s="12">
         <f>SUM(E28:E33)</f>
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1281.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="1">
+        <f>SUM(C29,C28)</f>
+        <v>420.66666666666663</v>
+      </c>
+      <c r="D35" s="1">
+        <f>SUM(D29,D28)</f>
+        <v>405.66666666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1">
+        <f>SUM(B31)</f>
+        <v>14.033095238095237</v>
+      </c>
+      <c r="D36" s="1">
+        <f>SUM(D31)</f>
+        <v>6.6038095238095238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
@@ -1663,7 +1801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -1683,7 +1821,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>17</v>
       </c>
@@ -1704,114 +1842,112 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B42" s="10">
         <f>E42*17/42</f>
-        <v>12.952380952380953</v>
+        <v>14.033095238095237</v>
       </c>
       <c r="C42" s="10">
         <f>E42*17/42</f>
-        <v>12.952380952380953</v>
+        <v>14.033095238095237</v>
       </c>
       <c r="D42" s="10">
         <f>E42*8/42</f>
-        <v>6.0952380952380949</v>
-      </c>
-      <c r="E42" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6.6038095238095238</v>
+      </c>
+      <c r="E42" s="10">
+        <f>34.67</f>
+        <v>34.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="10">
-        <f>E43/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="C43" s="10">
-        <f>E43/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="D43" s="10">
-        <f>E43/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="E43" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="13">
+        <v>0</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0</v>
+      </c>
+      <c r="E43" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="13">
         <f>E44/3</f>
-        <v>5</v>
-      </c>
-      <c r="C44" s="9">
+        <v>0</v>
+      </c>
+      <c r="C44" s="13">
         <f>E44/3</f>
-        <v>5</v>
-      </c>
-      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+      <c r="D44" s="13">
         <f>E44/3</f>
-        <v>5</v>
-      </c>
-      <c r="E44" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E44" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B45" s="12">
         <f>SUM(B39:B44)</f>
-        <v>445.95238095238091</v>
+        <v>434.69976190476189</v>
       </c>
       <c r="C45" s="12">
         <f>SUM(C39:C44)</f>
-        <v>445.95238095238091</v>
+        <v>434.69976190476189</v>
       </c>
       <c r="D45" s="12">
         <f>SUM(D39:D44)</f>
-        <v>424.09523809523802</v>
+        <v>412.27047619047613</v>
       </c>
       <c r="E45" s="12">
         <f>SUM(E39:E44)</f>
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1281.67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
         <v>1</v>
       </c>
@@ -1825,7 +1961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>19</v>
       </c>
@@ -1845,7 +1981,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>17</v>
       </c>
@@ -1866,114 +2002,112 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B53" s="10">
         <f>E53*17/42</f>
-        <v>12.952380952380953</v>
+        <v>14.033095238095237</v>
       </c>
       <c r="C53" s="10">
         <f>E53*17/42</f>
-        <v>12.952380952380953</v>
+        <v>14.033095238095237</v>
       </c>
       <c r="D53" s="10">
         <f>E53*8/42</f>
-        <v>6.0952380952380949</v>
-      </c>
-      <c r="E53" s="9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6.6038095238095238</v>
+      </c>
+      <c r="E53" s="10">
+        <f>34.67</f>
+        <v>34.67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="10">
-        <f>E54/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="C54" s="10">
-        <f>E54/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="D54" s="10">
-        <f>E54/3</f>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="E54" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="13">
+        <v>0</v>
+      </c>
+      <c r="C54" s="13">
+        <v>0</v>
+      </c>
+      <c r="D54" s="13">
+        <v>0</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="13">
         <f>E55/3</f>
-        <v>5</v>
-      </c>
-      <c r="C55" s="9">
+        <v>0</v>
+      </c>
+      <c r="C55" s="13">
         <f>E55/3</f>
-        <v>5</v>
-      </c>
-      <c r="D55" s="9">
+        <v>0</v>
+      </c>
+      <c r="D55" s="13">
         <f>E55/3</f>
-        <v>5</v>
-      </c>
-      <c r="E55" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="12">
         <f>SUM(B50:B55)</f>
-        <v>445.95238095238091</v>
+        <v>434.69976190476189</v>
       </c>
       <c r="C56" s="12">
         <f>SUM(C50:C55)</f>
-        <v>445.95238095238091</v>
+        <v>434.69976190476189</v>
       </c>
       <c r="D56" s="12">
         <f>SUM(D50:D55)</f>
-        <v>424.09523809523802</v>
+        <v>412.27047619047613</v>
       </c>
       <c r="E56" s="12">
         <f>SUM(E50:E55)</f>
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1281.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +2121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>19</v>
       </c>
@@ -2007,7 +2141,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>17</v>
       </c>
@@ -2028,7 +2162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>18</v>
       </c>
@@ -2048,7 +2182,7 @@
         <v>75.599999999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>26</v>
       </c>
@@ -2068,7 +2202,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>27</v>
       </c>
@@ -2088,7 +2222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>28</v>
       </c>
@@ -2108,7 +2242,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>20</v>
       </c>
@@ -2129,16 +2263,16 @@
         <v>1391.6</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
         <v>1</v>
       </c>
@@ -2152,7 +2286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>19</v>
       </c>
@@ -2172,7 +2306,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
@@ -2193,24 +2327,24 @@
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>26</v>
       </c>
@@ -2230,7 +2364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>27</v>
       </c>
@@ -2250,7 +2384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>28</v>
       </c>
@@ -2270,7 +2404,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>20</v>
       </c>
@@ -2307,74 +2441,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB04C31-A923-46C8-AB34-4A98DC5B24EB}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69E3E0A-15FF-4EFA-B486-F6693DE37983}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2">
-        <f>E2*17/42</f>
-        <v>12.142857142857142</v>
-      </c>
-      <c r="C2">
-        <f>E2*17/42</f>
-        <v>12.142857142857142</v>
-      </c>
-      <c r="D2">
-        <f>E2*8/42</f>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="E2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5">
-        <f>SUM(B2:B11)</f>
-        <v>12.142857142857142</v>
-      </c>
-      <c r="C12" s="5">
-        <f>SUM(C2:C11)</f>
-        <v>12.142857142857142</v>
-      </c>
-      <c r="D12" s="5">
-        <f>SUM(D2:D11)</f>
-        <v>5.7142857142857144</v>
-      </c>
-      <c r="E12" s="5">
-        <f>SUM(E2:E7)</f>
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>